--- a/Wiki/Gantt.xlsx
+++ b/Wiki/Gantt.xlsx
@@ -1353,52 +1353,52 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="46" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="2" xfId="12" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="46" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2131,8 +2131,8 @@
   <dimension ref="A1:ED38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2235,7 +2235,7 @@
       <c r="B2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="84" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2244,206 +2244,206 @@
         <v>2</v>
       </c>
       <c r="B3" s="50"/>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="89">
+      <c r="D3" s="98"/>
+      <c r="E3" s="99">
         <v>44970</v>
       </c>
-      <c r="F3" s="89"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:134" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="94">
         <f>I5</f>
         <v>44970</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="86">
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="94">
         <f>P5</f>
         <v>44977</v>
       </c>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="86">
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="94">
         <f>W5</f>
         <v>44984</v>
       </c>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="86">
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="94">
         <f>AD5</f>
         <v>44991</v>
       </c>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="86">
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="94">
         <f>AK5</f>
         <v>44998</v>
       </c>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="86">
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
+      <c r="AP4" s="95"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="94">
         <f>AR5</f>
         <v>45005</v>
       </c>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="86">
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="94">
         <f>AY5</f>
         <v>45012</v>
       </c>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="87"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="86">
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="94">
         <f>BF5</f>
         <v>45019</v>
       </c>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="87"/>
-      <c r="BL4" s="88"/>
-      <c r="BM4" s="86">
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95"/>
+      <c r="BL4" s="96"/>
+      <c r="BM4" s="94">
         <f>BM5</f>
         <v>45026</v>
       </c>
-      <c r="BN4" s="87"/>
-      <c r="BO4" s="87"/>
-      <c r="BP4" s="87"/>
-      <c r="BQ4" s="87"/>
-      <c r="BR4" s="87"/>
-      <c r="BS4" s="88"/>
-      <c r="BT4" s="86">
+      <c r="BN4" s="95"/>
+      <c r="BO4" s="95"/>
+      <c r="BP4" s="95"/>
+      <c r="BQ4" s="95"/>
+      <c r="BR4" s="95"/>
+      <c r="BS4" s="96"/>
+      <c r="BT4" s="94">
         <f>BT5</f>
         <v>45033</v>
       </c>
-      <c r="BU4" s="87"/>
-      <c r="BV4" s="87"/>
-      <c r="BW4" s="87"/>
-      <c r="BX4" s="87"/>
-      <c r="BY4" s="87"/>
-      <c r="BZ4" s="88"/>
-      <c r="CA4" s="86">
+      <c r="BU4" s="95"/>
+      <c r="BV4" s="95"/>
+      <c r="BW4" s="95"/>
+      <c r="BX4" s="95"/>
+      <c r="BY4" s="95"/>
+      <c r="BZ4" s="96"/>
+      <c r="CA4" s="94">
         <f>CA5</f>
         <v>45040</v>
       </c>
-      <c r="CB4" s="87"/>
-      <c r="CC4" s="87"/>
-      <c r="CD4" s="87"/>
-      <c r="CE4" s="87"/>
-      <c r="CF4" s="87"/>
-      <c r="CG4" s="88"/>
-      <c r="CH4" s="86">
+      <c r="CB4" s="95"/>
+      <c r="CC4" s="95"/>
+      <c r="CD4" s="95"/>
+      <c r="CE4" s="95"/>
+      <c r="CF4" s="95"/>
+      <c r="CG4" s="96"/>
+      <c r="CH4" s="94">
         <f>CH5</f>
         <v>45047</v>
       </c>
-      <c r="CI4" s="87"/>
-      <c r="CJ4" s="87"/>
-      <c r="CK4" s="87"/>
-      <c r="CL4" s="87"/>
-      <c r="CM4" s="87"/>
-      <c r="CN4" s="88"/>
-      <c r="CO4" s="86">
+      <c r="CI4" s="95"/>
+      <c r="CJ4" s="95"/>
+      <c r="CK4" s="95"/>
+      <c r="CL4" s="95"/>
+      <c r="CM4" s="95"/>
+      <c r="CN4" s="96"/>
+      <c r="CO4" s="94">
         <f>CO5</f>
         <v>45054</v>
       </c>
-      <c r="CP4" s="87"/>
-      <c r="CQ4" s="87"/>
-      <c r="CR4" s="87"/>
-      <c r="CS4" s="87"/>
-      <c r="CT4" s="87"/>
-      <c r="CU4" s="88"/>
-      <c r="CV4" s="86">
+      <c r="CP4" s="95"/>
+      <c r="CQ4" s="95"/>
+      <c r="CR4" s="95"/>
+      <c r="CS4" s="95"/>
+      <c r="CT4" s="95"/>
+      <c r="CU4" s="96"/>
+      <c r="CV4" s="94">
         <f>CV5</f>
         <v>45061</v>
       </c>
-      <c r="CW4" s="87"/>
-      <c r="CX4" s="87"/>
-      <c r="CY4" s="87"/>
-      <c r="CZ4" s="87"/>
-      <c r="DA4" s="87"/>
-      <c r="DB4" s="88"/>
-      <c r="DC4" s="86">
+      <c r="CW4" s="95"/>
+      <c r="CX4" s="95"/>
+      <c r="CY4" s="95"/>
+      <c r="CZ4" s="95"/>
+      <c r="DA4" s="95"/>
+      <c r="DB4" s="96"/>
+      <c r="DC4" s="94">
         <f>DC5</f>
         <v>45068</v>
       </c>
-      <c r="DD4" s="87"/>
-      <c r="DE4" s="87"/>
-      <c r="DF4" s="87"/>
-      <c r="DG4" s="87"/>
-      <c r="DH4" s="87"/>
-      <c r="DI4" s="88"/>
-      <c r="DJ4" s="86">
+      <c r="DD4" s="95"/>
+      <c r="DE4" s="95"/>
+      <c r="DF4" s="95"/>
+      <c r="DG4" s="95"/>
+      <c r="DH4" s="95"/>
+      <c r="DI4" s="96"/>
+      <c r="DJ4" s="94">
         <f>DJ5</f>
         <v>45075</v>
       </c>
-      <c r="DK4" s="87"/>
-      <c r="DL4" s="87"/>
-      <c r="DM4" s="87"/>
-      <c r="DN4" s="87"/>
-      <c r="DO4" s="87"/>
-      <c r="DP4" s="88"/>
-      <c r="DQ4" s="86">
+      <c r="DK4" s="95"/>
+      <c r="DL4" s="95"/>
+      <c r="DM4" s="95"/>
+      <c r="DN4" s="95"/>
+      <c r="DO4" s="95"/>
+      <c r="DP4" s="96"/>
+      <c r="DQ4" s="94">
         <f>DQ5</f>
         <v>45082</v>
       </c>
-      <c r="DR4" s="87"/>
-      <c r="DS4" s="87"/>
-      <c r="DT4" s="87"/>
-      <c r="DU4" s="87"/>
-      <c r="DV4" s="87"/>
-      <c r="DW4" s="88"/>
-      <c r="DX4" s="86">
+      <c r="DR4" s="95"/>
+      <c r="DS4" s="95"/>
+      <c r="DT4" s="95"/>
+      <c r="DU4" s="95"/>
+      <c r="DV4" s="95"/>
+      <c r="DW4" s="96"/>
+      <c r="DX4" s="94">
         <f>DX5</f>
         <v>45089</v>
       </c>
-      <c r="DY4" s="87"/>
-      <c r="DZ4" s="87"/>
-      <c r="EA4" s="87"/>
-      <c r="EB4" s="87"/>
-      <c r="EC4" s="87"/>
-      <c r="ED4" s="88"/>
+      <c r="DY4" s="95"/>
+      <c r="DZ4" s="95"/>
+      <c r="EA4" s="95"/>
+      <c r="EB4" s="95"/>
+      <c r="EC4" s="95"/>
+      <c r="ED4" s="96"/>
     </row>
     <row r="5" spans="1:134" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
@@ -7182,13 +7182,13 @@
       <c r="A32" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="95"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13" t="str">
         <f t="shared" si="61"/>
@@ -7323,19 +7323,19 @@
     </row>
     <row r="33" spans="1:134" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44"/>
-      <c r="B33" s="96" t="s">
+      <c r="B33" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="97" t="s">
+      <c r="C33" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="98">
+      <c r="D33" s="92">
         <v>0</v>
       </c>
-      <c r="E33" s="99">
+      <c r="E33" s="93">
         <v>45070</v>
       </c>
-      <c r="F33" s="99">
+      <c r="F33" s="93">
         <v>45075</v>
       </c>
       <c r="G33" s="13"/>
@@ -7472,19 +7472,19 @@
     </row>
     <row r="34" spans="1:134" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="44"/>
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="97" t="s">
+      <c r="C34" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="98">
+      <c r="D34" s="92">
         <v>0</v>
       </c>
-      <c r="E34" s="99">
+      <c r="E34" s="93">
         <v>45082</v>
       </c>
-      <c r="F34" s="99">
+      <c r="F34" s="93">
         <v>45089</v>
       </c>
       <c r="G34" s="13"/>
@@ -7774,17 +7774,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="AK4:AQ4"/>
@@ -7795,6 +7784,17 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="D7:D35">
@@ -8019,6 +8019,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8306,36 +8335,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8354,24 +8374,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>